--- a/Excel/Lv7Ground.xlsx
+++ b/Excel/Lv7Ground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC503EB0-0DE5-470F-8176-A69A93783B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B501E2B-98FA-4FCA-BCEE-A259E06EF4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="720" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
-  <dimension ref="A1:OP16"/>
+  <dimension ref="A1:OP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9495,9 +9495,1609 @@
       <c r="OO16" s="2"/>
       <c r="OP16" s="2"/>
     </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2">
+        <v>103</v>
+      </c>
+      <c r="H17" s="2">
+        <v>103</v>
+      </c>
+      <c r="I17" s="2">
+        <v>103</v>
+      </c>
+      <c r="J17" s="2">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2">
+        <v>103</v>
+      </c>
+      <c r="L17" s="2">
+        <v>103</v>
+      </c>
+      <c r="M17" s="2">
+        <v>103</v>
+      </c>
+      <c r="N17" s="2">
+        <v>103</v>
+      </c>
+      <c r="O17" s="2">
+        <v>103</v>
+      </c>
+      <c r="P17" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>103</v>
+      </c>
+      <c r="R17" s="2">
+        <v>103</v>
+      </c>
+      <c r="S17" s="2">
+        <v>103</v>
+      </c>
+      <c r="T17" s="2">
+        <v>103</v>
+      </c>
+      <c r="U17" s="2">
+        <v>103</v>
+      </c>
+      <c r="V17" s="2">
+        <v>103</v>
+      </c>
+      <c r="W17" s="2">
+        <v>103</v>
+      </c>
+      <c r="X17" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2">
+        <v>103</v>
+      </c>
+      <c r="E18" s="2">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2">
+        <v>103</v>
+      </c>
+      <c r="G18" s="2">
+        <v>103</v>
+      </c>
+      <c r="H18" s="2">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2">
+        <v>103</v>
+      </c>
+      <c r="J18" s="2">
+        <v>103</v>
+      </c>
+      <c r="K18" s="2">
+        <v>103</v>
+      </c>
+      <c r="L18" s="2">
+        <v>103</v>
+      </c>
+      <c r="M18" s="2">
+        <v>103</v>
+      </c>
+      <c r="N18" s="2">
+        <v>103</v>
+      </c>
+      <c r="O18" s="2">
+        <v>103</v>
+      </c>
+      <c r="P18" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>103</v>
+      </c>
+      <c r="R18" s="2">
+        <v>103</v>
+      </c>
+      <c r="S18" s="2">
+        <v>103</v>
+      </c>
+      <c r="T18" s="2">
+        <v>103</v>
+      </c>
+      <c r="U18" s="2">
+        <v>103</v>
+      </c>
+      <c r="V18" s="2">
+        <v>103</v>
+      </c>
+      <c r="W18" s="2">
+        <v>103</v>
+      </c>
+      <c r="X18" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2">
+        <v>103</v>
+      </c>
+      <c r="G19" s="2">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2">
+        <v>103</v>
+      </c>
+      <c r="I19" s="2">
+        <v>103</v>
+      </c>
+      <c r="J19" s="2">
+        <v>103</v>
+      </c>
+      <c r="K19" s="2">
+        <v>103</v>
+      </c>
+      <c r="L19" s="2">
+        <v>103</v>
+      </c>
+      <c r="M19" s="2">
+        <v>103</v>
+      </c>
+      <c r="N19" s="2">
+        <v>103</v>
+      </c>
+      <c r="O19" s="2">
+        <v>103</v>
+      </c>
+      <c r="P19" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>103</v>
+      </c>
+      <c r="R19" s="2">
+        <v>103</v>
+      </c>
+      <c r="S19" s="2">
+        <v>103</v>
+      </c>
+      <c r="T19" s="2">
+        <v>103</v>
+      </c>
+      <c r="U19" s="2">
+        <v>103</v>
+      </c>
+      <c r="V19" s="2">
+        <v>103</v>
+      </c>
+      <c r="W19" s="2">
+        <v>103</v>
+      </c>
+      <c r="X19" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2">
+        <v>103</v>
+      </c>
+      <c r="C20" s="2">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2">
+        <v>103</v>
+      </c>
+      <c r="I20" s="2">
+        <v>103</v>
+      </c>
+      <c r="J20" s="2">
+        <v>103</v>
+      </c>
+      <c r="K20" s="2">
+        <v>103</v>
+      </c>
+      <c r="L20" s="2">
+        <v>103</v>
+      </c>
+      <c r="M20" s="2">
+        <v>103</v>
+      </c>
+      <c r="N20" s="2">
+        <v>103</v>
+      </c>
+      <c r="O20" s="2">
+        <v>103</v>
+      </c>
+      <c r="P20" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>103</v>
+      </c>
+      <c r="R20" s="2">
+        <v>103</v>
+      </c>
+      <c r="S20" s="2">
+        <v>103</v>
+      </c>
+      <c r="T20" s="2">
+        <v>103</v>
+      </c>
+      <c r="U20" s="2">
+        <v>103</v>
+      </c>
+      <c r="V20" s="2">
+        <v>103</v>
+      </c>
+      <c r="W20" s="2">
+        <v>103</v>
+      </c>
+      <c r="X20" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2">
+        <v>103</v>
+      </c>
+      <c r="I21" s="2">
+        <v>103</v>
+      </c>
+      <c r="J21" s="2">
+        <v>103</v>
+      </c>
+      <c r="K21" s="2">
+        <v>103</v>
+      </c>
+      <c r="L21" s="2">
+        <v>103</v>
+      </c>
+      <c r="M21" s="2">
+        <v>103</v>
+      </c>
+      <c r="N21" s="2">
+        <v>103</v>
+      </c>
+      <c r="O21" s="2">
+        <v>103</v>
+      </c>
+      <c r="P21" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>103</v>
+      </c>
+      <c r="R21" s="2">
+        <v>103</v>
+      </c>
+      <c r="S21" s="2">
+        <v>103</v>
+      </c>
+      <c r="T21" s="2">
+        <v>103</v>
+      </c>
+      <c r="U21" s="2">
+        <v>103</v>
+      </c>
+      <c r="V21" s="2">
+        <v>103</v>
+      </c>
+      <c r="W21" s="2">
+        <v>103</v>
+      </c>
+      <c r="X21" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>103</v>
+      </c>
+      <c r="B22" s="2">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2">
+        <v>103</v>
+      </c>
+      <c r="H22" s="2">
+        <v>103</v>
+      </c>
+      <c r="I22" s="2">
+        <v>103</v>
+      </c>
+      <c r="J22" s="2">
+        <v>103</v>
+      </c>
+      <c r="K22" s="2">
+        <v>103</v>
+      </c>
+      <c r="L22" s="2">
+        <v>103</v>
+      </c>
+      <c r="M22" s="2">
+        <v>103</v>
+      </c>
+      <c r="N22" s="2">
+        <v>103</v>
+      </c>
+      <c r="O22" s="2">
+        <v>103</v>
+      </c>
+      <c r="P22" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>103</v>
+      </c>
+      <c r="R22" s="2">
+        <v>103</v>
+      </c>
+      <c r="S22" s="2">
+        <v>103</v>
+      </c>
+      <c r="T22" s="2">
+        <v>103</v>
+      </c>
+      <c r="U22" s="2">
+        <v>103</v>
+      </c>
+      <c r="V22" s="2">
+        <v>103</v>
+      </c>
+      <c r="W22" s="2">
+        <v>103</v>
+      </c>
+      <c r="X22" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2">
+        <v>103</v>
+      </c>
+      <c r="G23" s="2">
+        <v>103</v>
+      </c>
+      <c r="H23" s="2">
+        <v>103</v>
+      </c>
+      <c r="I23" s="2">
+        <v>103</v>
+      </c>
+      <c r="J23" s="2">
+        <v>103</v>
+      </c>
+      <c r="K23" s="2">
+        <v>103</v>
+      </c>
+      <c r="L23" s="2">
+        <v>103</v>
+      </c>
+      <c r="M23" s="2">
+        <v>103</v>
+      </c>
+      <c r="N23" s="2">
+        <v>103</v>
+      </c>
+      <c r="O23" s="2">
+        <v>103</v>
+      </c>
+      <c r="P23" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>103</v>
+      </c>
+      <c r="R23" s="2">
+        <v>103</v>
+      </c>
+      <c r="S23" s="2">
+        <v>103</v>
+      </c>
+      <c r="T23" s="2">
+        <v>103</v>
+      </c>
+      <c r="U23" s="2">
+        <v>103</v>
+      </c>
+      <c r="V23" s="2">
+        <v>103</v>
+      </c>
+      <c r="W23" s="2">
+        <v>103</v>
+      </c>
+      <c r="X23" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>103</v>
+      </c>
+      <c r="B24" s="2">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2">
+        <v>103</v>
+      </c>
+      <c r="F24" s="2">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2">
+        <v>103</v>
+      </c>
+      <c r="H24" s="2">
+        <v>103</v>
+      </c>
+      <c r="I24" s="2">
+        <v>103</v>
+      </c>
+      <c r="J24" s="2">
+        <v>103</v>
+      </c>
+      <c r="K24" s="2">
+        <v>103</v>
+      </c>
+      <c r="L24" s="2">
+        <v>103</v>
+      </c>
+      <c r="M24" s="2">
+        <v>103</v>
+      </c>
+      <c r="N24" s="2">
+        <v>103</v>
+      </c>
+      <c r="O24" s="2">
+        <v>103</v>
+      </c>
+      <c r="P24" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>103</v>
+      </c>
+      <c r="R24" s="2">
+        <v>103</v>
+      </c>
+      <c r="S24" s="2">
+        <v>103</v>
+      </c>
+      <c r="T24" s="2">
+        <v>103</v>
+      </c>
+      <c r="U24" s="2">
+        <v>103</v>
+      </c>
+      <c r="V24" s="2">
+        <v>103</v>
+      </c>
+      <c r="W24" s="2">
+        <v>103</v>
+      </c>
+      <c r="X24" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>102</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>102</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>103</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:OP1 A2:BN16 CM2:OP16">
+  <conditionalFormatting sqref="A1:OP1 CM2:OP16 A2:BN24">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>111</formula>
     </cfRule>
